--- a/data/trans_dic/LAWTONB_2R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1012680136864237</v>
+        <v>0.09904292048656617</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09020091657197576</v>
+        <v>0.09311249602208019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04285187916875061</v>
+        <v>0.04747813623614366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06897477161186943</v>
+        <v>0.06483419168888552</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2612871939483787</v>
+        <v>0.2767738063805024</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04038658899629601</v>
+        <v>0.03982229675052819</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1062295112544794</v>
+        <v>0.1217666504020177</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1504612394382175</v>
+        <v>0.1567475725919301</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1911241306591079</v>
+        <v>0.1936311596887396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08869091139013405</v>
+        <v>0.08270258496798934</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0902023712087708</v>
+        <v>0.08726638064514426</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1102473234451181</v>
+        <v>0.1108272147122399</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3265086105773143</v>
+        <v>0.3117361522564031</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3537163726433697</v>
+        <v>0.3768359725819026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1937533062594473</v>
+        <v>0.1960717883614655</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1626648979854824</v>
+        <v>0.1571170901047395</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6132892778814524</v>
+        <v>0.6330387125982585</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3493483407789849</v>
+        <v>0.3304807448019232</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4440972942679671</v>
+        <v>0.451783641659057</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3070698038408651</v>
+        <v>0.3024361542278785</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3862370295893409</v>
+        <v>0.3887683202980698</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2914790179738415</v>
+        <v>0.2919437618340184</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2490296421353343</v>
+        <v>0.2486866909434634</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1944682706168613</v>
+        <v>0.1932473360262603</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2652086978773098</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2139298938825271</v>
+        <v>0.2139298938825272</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1298263891840487</v>
+        <v>0.1254611235344848</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06826637744853291</v>
+        <v>0.07165109518036306</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1100120370654839</v>
+        <v>0.1158701790517838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1204708257428128</v>
+        <v>0.1132673012048906</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1312388058490401</v>
+        <v>0.1336879089456243</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.232258507295891</v>
+        <v>0.2151459900091437</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1946447636650542</v>
+        <v>0.1989147559183786</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2021561978110633</v>
+        <v>0.209173753890438</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1537780923825479</v>
+        <v>0.1601251285743678</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1403111620268198</v>
+        <v>0.1417342081213444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1692668574757835</v>
+        <v>0.1673807811833099</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1668417580778434</v>
+        <v>0.1662716191236418</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3738957862949689</v>
+        <v>0.387220901149855</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2865316996105493</v>
+        <v>0.2981678971162915</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3094852764772886</v>
+        <v>0.3260272393922746</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2405669017516139</v>
+        <v>0.2380003530621214</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6181167623626529</v>
+        <v>0.605675929467837</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7110340692936739</v>
+        <v>0.7092474466728111</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7333211268065739</v>
+        <v>0.7325417811300015</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3967068248356418</v>
+        <v>0.3938912925788179</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3717742787140638</v>
+        <v>0.3741581949096752</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3494812612753078</v>
+        <v>0.3503252855260624</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3777163422204991</v>
+        <v>0.3702734741407603</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2691394468406458</v>
+        <v>0.2760428146207231</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1370595840973834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1886069079576337</v>
+        <v>0.1886069079576336</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3427435561254856</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1690151148628834</v>
+        <v>0.1792917573920323</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1492849291442546</v>
+        <v>0.1461651583563495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08424807279376875</v>
+        <v>0.0860964363369348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1353029788685379</v>
+        <v>0.1351144397023371</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1635400502611757</v>
+        <v>0.1704487090632697</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.222153764328323</v>
+        <v>0.2334012601909762</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1976693903041192</v>
+        <v>0.2023895207153459</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3301069449793255</v>
+        <v>0.3265126005351698</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1907369122988797</v>
+        <v>0.2032694523091167</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1967512829691789</v>
+        <v>0.1944083679633332</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1406431011950515</v>
+        <v>0.1433731565548029</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2166283269826582</v>
+        <v>0.2208863292483573</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.379302899697006</v>
+        <v>0.3732999220933146</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.315636183880182</v>
+        <v>0.3257308907141054</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2047257335591688</v>
+        <v>0.2036248868039297</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2559262154624519</v>
+        <v>0.260263369269514</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5537129491988232</v>
+        <v>0.5579021675436696</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4889317204547566</v>
+        <v>0.5025573454317669</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5115612649091729</v>
+        <v>0.5152746951375027</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5288494448254014</v>
+        <v>0.5297224690912036</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3735411252409759</v>
+        <v>0.3781811134336207</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3506293867604496</v>
+        <v>0.3389921992233497</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2680027202034557</v>
+        <v>0.2662455212541077</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3282152768506992</v>
+        <v>0.3299013232689897</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2291273202391887</v>
+        <v>0.23074538859586</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2409569890915096</v>
+        <v>0.24100035446369</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1541649101061118</v>
+        <v>0.1478343271945747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2805735667107547</v>
+        <v>0.2803189204997076</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1964756631052872</v>
+        <v>0.2013879014496777</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2697865910723276</v>
+        <v>0.2801644551744789</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2429006451770783</v>
+        <v>0.2499421447432272</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2637988892379799</v>
+        <v>0.2639859405832211</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2303381652051343</v>
+        <v>0.2316891399732298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2640162020053865</v>
+        <v>0.2644775549088919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2016686240907804</v>
+        <v>0.1948540075043899</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2874332913596387</v>
+        <v>0.2846130320007147</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3358650538795043</v>
+        <v>0.3373256886280991</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3668341605260072</v>
+        <v>0.3702168913038143</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2564299847365819</v>
+        <v>0.258887413410763</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3795001385032812</v>
+        <v>0.377292974936132</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3891247180485279</v>
+        <v>0.3902617391089271</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5281105980226517</v>
+        <v>0.5327303493356019</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4534873681251129</v>
+        <v>0.4687908434973231</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.37535299665699</v>
+        <v>0.3797975990914281</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3259572858638402</v>
+        <v>0.3212425413037586</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.378367421072434</v>
+        <v>0.3743281940694274</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3065501485834509</v>
+        <v>0.3001159933979564</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.363715334095533</v>
+        <v>0.3604691737494062</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.345170380310478</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4861392207888855</v>
+        <v>0.4861392207888854</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3515025603068607</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2043742336811629</v>
+        <v>0.1955210565488917</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2589366871233105</v>
+        <v>0.2521865473036207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2657797519890867</v>
+        <v>0.2643520391640313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2639622498934597</v>
+        <v>0.2711950449318877</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2852701270615048</v>
+        <v>0.2784126114214822</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3758308752738478</v>
+        <v>0.3769982028569271</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2609732444947681</v>
+        <v>0.2670820055427209</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4359962950113698</v>
+        <v>0.4391282269794137</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2695826147958383</v>
+        <v>0.2724029943047446</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.356935734809216</v>
+        <v>0.3534879728885232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2847206119689513</v>
+        <v>0.2845765731554138</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4008869754295589</v>
+        <v>0.4009404582509055</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4362168633535184</v>
+        <v>0.4206979302407718</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4482103707276359</v>
+        <v>0.446149756156507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4093998663092296</v>
+        <v>0.4124141409010902</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4271405997198333</v>
+        <v>0.4247766645172059</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4887367659469691</v>
+        <v>0.4876007855324299</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5222075019744059</v>
+        <v>0.5218184992135418</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4203850662096882</v>
+        <v>0.4312622789813153</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.531211773167342</v>
+        <v>0.5331263506164965</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4291296619700259</v>
+        <v>0.4306469428950251</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4701374188289227</v>
+        <v>0.4756171374526398</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3918771804554873</v>
+        <v>0.3982801232088708</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4809968973392598</v>
+        <v>0.4815850558676004</v>
       </c>
     </row>
     <row r="19">
@@ -1375,7 +1375,7 @@
         <v>0.366161758533544</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4625667614094852</v>
+        <v>0.4625667614094851</v>
       </c>
     </row>
     <row r="20">
@@ -1391,31 +1391,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.1753445647139325</v>
+        <v>0.1892256228645394</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2989103634887043</v>
+        <v>0.2940442843256169</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3230745915865398</v>
+        <v>0.3273938690754598</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3155338026151835</v>
+        <v>0.3118495821020467</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4172137801874199</v>
+        <v>0.4216070240040305</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2950588261759565</v>
+        <v>0.2932872795729775</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3195704518604596</v>
+        <v>0.3220347847335959</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3155338026151835</v>
+        <v>0.3118495821020467</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4219081361015873</v>
+        <v>0.4239714347293845</v>
       </c>
     </row>
     <row r="21">
@@ -1434,28 +1434,28 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3882727909990156</v>
+        <v>0.3882085660807385</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4195052368347219</v>
+        <v>0.4196324638998193</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4169991836048818</v>
+        <v>0.4179708199094163</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4995161588539185</v>
+        <v>0.5013537412142461</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3839470564787876</v>
+        <v>0.3932538938142731</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4181501448774129</v>
+        <v>0.4199313736598895</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4169991836048818</v>
+        <v>0.4179708199094163</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4977361132966201</v>
+        <v>0.5030272374647466</v>
       </c>
     </row>
     <row r="22">
@@ -1514,40 +1514,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.225698983585097</v>
+        <v>0.2266472966095932</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1787360360020671</v>
+        <v>0.1790318553672144</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2192693435364834</v>
+        <v>0.2241608545337384</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3489101405527321</v>
+        <v>0.3453954931304581</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3163924648813878</v>
+        <v>0.3174017000739793</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.388647978720788</v>
+        <v>0.3896463405719572</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2817859454262528</v>
+        <v>0.2857133638463251</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3074691336255719</v>
+        <v>0.3076359617156308</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2681387100908106</v>
+        <v>0.2671696788004054</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3210558773764836</v>
+        <v>0.3201065738178994</v>
       </c>
     </row>
     <row r="24">
@@ -1558,40 +1558,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3016816359320408</v>
+        <v>0.3045861908973629</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.240743027232943</v>
+        <v>0.2418572840000608</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2759690749776483</v>
+        <v>0.2759150919611473</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.424859291150783</v>
+        <v>0.4198992135110333</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3941037512940602</v>
+        <v>0.3912489120614807</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4357868612302517</v>
+        <v>0.4385624412824948</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3367003578928703</v>
+        <v>0.3373082220842394</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3617614578318661</v>
+        <v>0.3611961234544515</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3189755593171711</v>
+        <v>0.3187276102643337</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3598255601469063</v>
+        <v>0.3569202763845715</v>
       </c>
     </row>
     <row r="25">
@@ -1864,40 +1864,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6054</v>
+        <v>5921</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3961</v>
+        <v>4089</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2942</v>
+        <v>3259</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8224</v>
+        <v>7730</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7763</v>
+        <v>8223</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3919</v>
+        <v>4492</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11218</v>
+        <v>11687</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17104</v>
+        <v>17329</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6138</v>
+        <v>5724</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9520</v>
+        <v>9210</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>21364</v>
+        <v>21477</v>
       </c>
     </row>
     <row r="7">
@@ -1908,40 +1908,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19520</v>
+        <v>18637</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15535</v>
+        <v>16550</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13301</v>
+        <v>13460</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19394</v>
+        <v>18732</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18220</v>
+        <v>18807</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8835</v>
+        <v>8358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16382</v>
+        <v>16665</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22895</v>
+        <v>22549</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>34566</v>
+        <v>34792</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>20172</v>
+        <v>20205</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26281</v>
+        <v>26245</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37685</v>
+        <v>37448</v>
       </c>
     </row>
     <row r="8">
@@ -2044,40 +2044,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6599</v>
+        <v>6377</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4139</v>
+        <v>4344</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5868</v>
+        <v>6181</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12615</v>
+        <v>11861</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2072</v>
+        <v>2110</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4390</v>
+        <v>4067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3423</v>
+        <v>3499</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11196</v>
+        <v>11585</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10244</v>
+        <v>10667</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11159</v>
+        <v>11272</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12006</v>
+        <v>11873</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26711</v>
+        <v>26620</v>
       </c>
     </row>
     <row r="11">
@@ -2088,40 +2088,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19005</v>
+        <v>19682</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17372</v>
+        <v>18078</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16509</v>
+        <v>17392</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25191</v>
+        <v>24922</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9758</v>
+        <v>9561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13440</v>
+        <v>13406</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12898</v>
+        <v>12884</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21972</v>
+        <v>21816</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24766</v>
+        <v>24925</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27795</v>
+        <v>27862</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26792</v>
+        <v>26264</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>43089</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="12">
@@ -2224,40 +2224,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12128</v>
+        <v>12865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17713</v>
+        <v>17343</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10132</v>
+        <v>10354</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15138</v>
+        <v>15117</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3970</v>
+        <v>4138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12133</v>
+        <v>12747</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9134</v>
+        <v>9352</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18794</v>
+        <v>18590</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18316</v>
+        <v>19520</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>34091</v>
+        <v>33685</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>23413</v>
+        <v>23867</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>36571</v>
+        <v>37290</v>
       </c>
     </row>
     <row r="15">
@@ -2268,40 +2268,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27217</v>
+        <v>26786</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37451</v>
+        <v>38649</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24621</v>
+        <v>24488</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28634</v>
+        <v>29119</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13441</v>
+        <v>13543</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26703</v>
+        <v>27447</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23639</v>
+        <v>23810</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30110</v>
+        <v>30159</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>35871</v>
+        <v>36317</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>60753</v>
+        <v>58737</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>44614</v>
+        <v>44322</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55409</v>
+        <v>55693</v>
       </c>
     </row>
     <row r="16">
@@ -2404,40 +2404,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>59590</v>
+        <v>60010</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>55843</v>
+        <v>55853</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31427</v>
+        <v>30137</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>72198</v>
+        <v>72133</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16848</v>
+        <v>17269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16213</v>
+        <v>16836</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24058</v>
+        <v>24756</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>34526</v>
+        <v>34550</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>79656</v>
+        <v>80124</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>77053</v>
+        <v>77187</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>61086</v>
+        <v>59022</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>111583</v>
+        <v>110488</v>
       </c>
     </row>
     <row r="19">
@@ -2448,40 +2448,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87349</v>
+        <v>87729</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>85015</v>
+        <v>85799</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>52275</v>
+        <v>52776</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>97654</v>
+        <v>97087</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33368</v>
+        <v>33466</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31737</v>
+        <v>32014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>44916</v>
+        <v>46432</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>49126</v>
+        <v>49708</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>112724</v>
+        <v>111093</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>110426</v>
+        <v>109247</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>92855</v>
+        <v>90906</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>141196</v>
+        <v>139936</v>
       </c>
     </row>
     <row r="20">
@@ -2584,40 +2584,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11336</v>
+        <v>10845</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26592</v>
+        <v>25899</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38597</v>
+        <v>38389</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26147</v>
+        <v>26863</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27457</v>
+        <v>26797</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>70807</v>
+        <v>71026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>41638</v>
+        <v>42613</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>95167</v>
+        <v>95850</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>40900</v>
+        <v>41328</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>103903</v>
+        <v>102899</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>86775</v>
+        <v>86731</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>127212</v>
+        <v>127229</v>
       </c>
     </row>
     <row r="23">
@@ -2628,40 +2628,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24195</v>
+        <v>23334</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>46029</v>
+        <v>45818</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>59453</v>
+        <v>59891</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>42310</v>
+        <v>42076</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>47041</v>
+        <v>46932</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>98384</v>
+        <v>98311</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>67072</v>
+        <v>68808</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>115950</v>
+        <v>116368</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>65105</v>
+        <v>65336</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>136855</v>
+        <v>138450</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>119433</v>
+        <v>121384</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>152633</v>
+        <v>152820</v>
       </c>
     </row>
     <row r="24">
@@ -2767,31 +2767,31 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>127058</v>
+        <v>124989</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>127519</v>
+        <v>129224</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>130342</v>
+        <v>128820</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>143381</v>
+        <v>144891</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>126496</v>
+        <v>125737</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>126771</v>
+        <v>127749</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>130342</v>
+        <v>128820</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>146377</v>
+        <v>147093</v>
       </c>
     </row>
     <row r="27">
@@ -2810,28 +2810,28 @@
         <v>3276</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>165043</v>
+        <v>165016</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>165580</v>
+        <v>165631</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>172255</v>
+        <v>172657</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>171666</v>
+        <v>172297</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>164604</v>
+        <v>168594</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>165877</v>
+        <v>166583</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>172255</v>
+        <v>172657</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>172685</v>
+        <v>174521</v>
       </c>
     </row>
     <row r="28">
@@ -2934,40 +2934,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>113200</v>
+        <v>113675</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>105692</v>
+        <v>105867</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>152497</v>
+        <v>155899</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>258893</v>
+        <v>256285</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>244370</v>
+        <v>245150</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>341892</v>
+        <v>342770</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>332055</v>
+        <v>336683</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>400215</v>
+        <v>400432</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>365659</v>
+        <v>364337</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>505719</v>
+        <v>504224</v>
       </c>
     </row>
     <row r="31">
@@ -2978,40 +2978,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>151309</v>
+        <v>152766</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>142358</v>
+        <v>143017</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>191930</v>
+        <v>191893</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>315248</v>
+        <v>311567</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>304392</v>
+        <v>302187</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>383360</v>
+        <v>385802</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>396765</v>
+        <v>397482</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>470884</v>
+        <v>470148</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>434984</v>
+        <v>434646</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>566788</v>
+        <v>562212</v>
       </c>
     </row>
     <row r="32">
